--- a/final_files/combined.xlsx
+++ b/final_files/combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\aisafe_back\final_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94169C47-FBEF-4EA8-B9FF-20F1BCA07994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76957DBB-F5F6-43E7-9F18-622B172BC80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9150" yWindow="0" windowWidth="14610" windowHeight="15480" xr2:uid="{3F8FCF32-F07C-4513-8F2F-154C8FCB4136}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F8FCF32-F07C-4513-8F2F-154C8FCB4136}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155223B4-36B1-4307-8FBA-F3001329E432}">
   <dimension ref="A1:CF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BY1" workbookViewId="0">
-      <selection activeCell="CF1" sqref="CF1:CF1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AS2" sqref="AS2:BA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="AU22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV22">
         <v>0</v>
@@ -6841,7 +6841,7 @@
         <v>92</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25">
         <v>0</v>
@@ -7105,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="AW26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX26">
         <v>0</v>
@@ -7117,7 +7117,7 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="3">
         <v>0.05</v>
@@ -7865,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="AY29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ29">
         <v>0</v>
